--- a/用例数据/股转/DVP改革/待处置交收锁定（T+1日）/测试结果.xlsx
+++ b/用例数据/股转/DVP改革/待处置交收锁定（T+1日）/测试结果.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="315">
   <si>
     <t>EXCHID</t>
   </si>
@@ -954,6 +954,19 @@
   </si>
   <si>
     <t>000007014960</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>EXTEND</t>
+  </si>
+  <si>
+    <t>FROZENAMT</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3661,15 +3674,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3718,8 +3735,14 @@
       <c r="P1" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -3736,7 +3759,7 @@
         <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>123</v>
@@ -3748,10 +3771,10 @@
         <v>93</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>93</v>
@@ -3761,12 +3784,21 @@
       </c>
       <c r="N2" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -3783,7 +3815,7 @@
         <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>123</v>
@@ -3795,10 +3827,10 @@
         <v>93</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>93</v>
@@ -3808,12 +3840,21 @@
       </c>
       <c r="N3" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -3856,11 +3897,20 @@
       <c r="N4" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -3903,31 +3953,40 @@
       <c r="N5" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>150</v>
@@ -3936,10 +3995,10 @@
         <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>93</v>
@@ -3949,32 +4008,41 @@
       </c>
       <c r="N6" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>150</v>
@@ -3983,10 +4051,10 @@
         <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>93</v>
@@ -3996,32 +4064,41 @@
       </c>
       <c r="N7" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>150</v>
@@ -4030,10 +4107,10 @@
         <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>93</v>
@@ -4043,32 +4120,41 @@
       </c>
       <c r="N8" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>150</v>
@@ -4077,10 +4163,10 @@
         <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>93</v>
@@ -4090,18 +4176,27 @@
       </c>
       <c r="N9" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4128,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BN14" sqref="BN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4729,7 +4824,7 @@
         <v>93</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>288</v>
@@ -5049,7 +5144,7 @@
         <v>93</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>288</v>
@@ -5369,7 +5464,7 @@
         <v>93</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>288</v>
@@ -5689,7 +5784,7 @@
         <v>93</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>288</v>
@@ -6009,7 +6104,7 @@
         <v>93</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>288</v>
@@ -6329,7 +6424,7 @@
         <v>93</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>288</v>
@@ -6649,7 +6744,7 @@
         <v>93</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>288</v>
@@ -6969,7 +7064,7 @@
         <v>93</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>288</v>
@@ -7140,5 +7235,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>